--- a/tabela_dados.xlsx
+++ b/tabela_dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albano Souza\Documents\GitHub\automacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aesouza\Documents\automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5209A3-E5F9-40B0-AF75-02E0D228A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664566CF-5C8D-4BED-AF2C-DADC79F16B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>nome</t>
   </si>
@@ -46,36 +46,24 @@
     <t>Maria Oliveira</t>
   </si>
   <si>
-    <t>123.456.789-00</t>
-  </si>
-  <si>
     <t>987.654.321-00</t>
   </si>
   <si>
     <t>456.789.123-00</t>
   </si>
   <si>
-    <t>Saúde</t>
-  </si>
-  <si>
     <t>Educação</t>
   </si>
   <si>
     <t>Segurança</t>
   </si>
   <si>
-    <t>Recursos Humanos</t>
-  </si>
-  <si>
     <t>Financeiro</t>
   </si>
   <si>
     <t>TI</t>
   </si>
   <si>
-    <t>Administração</t>
-  </si>
-  <si>
     <t>Orçamento</t>
   </si>
   <si>
@@ -88,15 +76,9 @@
     <t>Manutenção de sistemas</t>
   </si>
   <si>
-    <t>João Silva Santos</t>
-  </si>
-  <si>
     <t>Carlos Santos Maia Tadeu</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciar equipe </t>
-  </si>
-  <si>
     <t>divisao</t>
   </si>
   <si>
@@ -119,6 +101,21 @@
   </si>
   <si>
     <t>Maria Roberta Santos Pereira Cruz</t>
+  </si>
+  <si>
+    <t>Albano Lucas Evangelista de Souza</t>
+  </si>
+  <si>
+    <t>025.014.545.61</t>
+  </si>
+  <si>
+    <t>SECAD</t>
+  </si>
+  <si>
+    <t>DTIC</t>
+  </si>
+  <si>
+    <t>Gestor de compras, Ouvidoria</t>
   </si>
 </sst>
 </file>
@@ -177,12 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="322" zoomScaleNormal="322" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -533,25 +529,22 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>89654789</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
+      <c r="H2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -559,74 +552,75 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>97546789</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>98765456</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>64356784</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabela_dados.xlsx
+++ b/tabela_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aesouza\Documents\automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664566CF-5C8D-4BED-AF2C-DADC79F16B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D2BCA-5A36-4F59-8F63-E981EEEA5CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>nome</t>
   </si>
@@ -109,13 +109,19 @@
     <t>025.014.545.61</t>
   </si>
   <si>
-    <t>SECAD</t>
-  </si>
-  <si>
     <t>DTIC</t>
   </si>
   <si>
-    <t>Gestor de compras, Ouvidoria</t>
+    <t>AG - Gestor de Compras, AG - Ouvidoria</t>
+  </si>
+  <si>
+    <t>Secretaria de Administração</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
   </si>
 </sst>
 </file>
@@ -483,25 +489,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +533,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -535,19 +545,22 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="G2">
         <v>89654789</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -570,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -596,7 +609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>

--- a/tabela_dados.xlsx
+++ b/tabela_dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aesouza\Documents\automacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albano Souza\Documents\GitHub\automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2D2BCA-5A36-4F59-8F63-E981EEEA5CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14553F31-50FE-4D04-AA6A-C675F8D626C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>nome</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>equiparar</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,9 +509,10 @@
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +540,11 @@
       <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -560,7 +567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -583,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -609,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
